--- a/エレメンタル_作業リスト_PG用.xlsx
+++ b/エレメンタル_作業リスト_PG用.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="9870"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="簡易" sheetId="2" r:id="rId1"/>
+    <sheet name="工程" sheetId="1" r:id="rId2"/>
+    <sheet name="追加作業" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
   <si>
     <t>OG</t>
     <phoneticPr fontId="1"/>
@@ -321,25 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃1を3種類用意する（それぞれ別の入力）。</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3種類用意した色と入力をどのタイミングで入力しても対応した色に変化する</t>
     <rPh sb="1" eb="3">
       <t>シュルイ</t>
@@ -399,13 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の攻撃</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -451,65 +425,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵に色を付ける（現段階では主人公_攻撃1と同じ色にする）。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ゲンダンカイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の撃破</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主人公_攻撃2により攻撃が敵に当たると、敵は消滅する。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,34 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主人公_属性の準備2と同じ色を用意し、敵に反映させる。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の撃破2</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -724,22 +617,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>属性の準備1の3種類にそれぞれ異なる色を用意する。</t>
-    <rPh sb="8" eb="10">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールド上に□を配置する</t>
     <rPh sb="5" eb="6">
       <t>ジョウ</t>
@@ -767,34 +644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主人公_攻撃4と同様に敵の攻撃も一定距離で消滅する。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の設定2</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -828,22 +677,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の設定1とは別のボックスを用意。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -857,28 +690,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の設定2は常に近接攻撃を行う。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -939,46 +750,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の色と主人公の色が同じ状態の時に攻撃を当てると敵は消滅する</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <t>簡易消滅</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>簡易消滅</t>
-    <rPh sb="0" eb="2">
-      <t>カンイ</t>
+    <t>敵の消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショウメツ</t>
@@ -986,70 +770,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の消滅</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の撃破3</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消滅ではなく、敵が点滅する。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウメツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>光る、戻る、光るを繰り返す</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の撃破3の後、消滅する。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,16 +790,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の撃破4</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主人公が敵に接触すると、3秒後、敗北シーン（新たに用意）に移動する。</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
@@ -1130,16 +846,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点滅の追加</t>
-    <rPh sb="0" eb="2">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの被害4</t>
     <rPh sb="6" eb="8">
       <t>ヒガイ</t>
@@ -1171,26 +877,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の移動</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の種類</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>接触</t>
     <rPh sb="0" eb="2">
       <t>セッショク</t>
@@ -1311,6 +997,2010 @@
     <t>KBの判定</t>
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定範囲にプレイヤーが存在すると、敵はプレイヤーに向かって進む。</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の移動1</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵1</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の移動2</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の移動3</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の種類</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本動作</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に動く･ジャンプ･下に降りる・ダッシュ</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い足場</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れない壁</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れる壁</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷の壁</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷の壁2</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溶ける</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックで溶ける</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の雷爆発によってスイッチ範囲にいると</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に当たるまで進行方向に進む。当たると反対に向き、進行方向に進む。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの画面内に入ると、描画され、進行方向に向かって動く。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎のギミックによって破壊できないブロック。</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎のギミックによって破壊できるブロック。</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの発生</t>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定地点にプレイヤーが到着すると、画面上部にテキストボックスが生成され、文字が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コドラの攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定距離まで近づくと、敵はプレイヤーめがけてジャンプを行う</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケルトンの攻撃</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムの攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動きの発生</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発見</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃1</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃2</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃3</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定範囲までプレイヤーに近づくと、【敵1_敵の攻撃2】を行う</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定距離まで近づくと、【敵1_敵の攻撃3】を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃1】を3種類用意する（それぞれ別の入力）。</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【属性の準備1】の3種類にそれぞれ異なる色を用意する。</t>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【主人公_攻撃4】と同様に敵の攻撃も一定距離で消滅する。</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵の設定1】とは別のボックスを用意。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵の設定2】は常に近接攻撃を行う。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に色を付ける（現段階では【主人公_攻撃1】と同じ色にする）。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【主人公_属性の準備2】と同じ色を用意し、敵に反映させる。</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅の追加（近接攻撃の攻撃も）</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の撃破</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目によって動かせる範囲は最初の範囲から数えて2.5個先まで（範囲は視界範囲を指す）。</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の敵が【相互_敵の撃破3】のあと、爆発のモーションが発生する</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破1</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破2</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破3</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破4</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破5</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【赤の撃破1】の爆発モーションと同時に周囲のブロックが破壊される。</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【赤の撃破2】の爆破で壊れないブロックを作る。</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【赤の撃破2】の爆破による被害は、爆破地点の周囲2マス（ナナメ換算）にする。</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【赤の撃破2】の爆破範囲内に別の敵（赤色）が爆発に巻き込まれると、【相互_敵の撃破3】に入る</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破1</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の敵が【相互_敵の撃破3】のあと、氷のモーションが発生する</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷は障害物</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破1】の氷のモーション後、氷のブロックが生成される。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破2</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破3</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破2】の氷のブロックは、横2マス縦3マス。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破4</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破5</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破3】のブロックは障害物であり、乗ることができる。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破3】のブロックが生成される場所にプレイヤーが居ると、氷外に押し出される。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破6</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破3】のブロックは一定時間後、消える（溶ける）。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破7</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【青の撃破6】のときにプレイヤーが氷の上に存在している場合、下に落下する。</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の撃破1</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の撃破2</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【黄の撃破1】のモーションが発生と同時に4マス以内に敵が存在すると、その敵は行動･攻撃不可能になる。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の敵が【相互_敵の撃破3】の雷のモーションが発生し、数秒後に消える。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の撃破3</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【黄の撃破2】の敵はx秒行動･攻撃不可能になり、その間はスタンエフェクトが周りに纏う。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【主人公_攻撃2】により攻撃が敵に当たると、敵は点滅する。</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の色と主人公の色が同じ状態の時に攻撃を当てると敵は点滅する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵の撃破2】の後、消滅する。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【黄の撃破2】の時にスイッチが存在する場合、スイッチに対応したギミックが発生する。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スイッチ1】が行われると、別の場所に存在するブロックが消滅する。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スイッチ1】が行われると、別の場所にブロックが出現される。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スイッチ1】が行われると、別の場所に敵が出現される。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動操作でのキーとは別のキーを用意する</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">そのキーを押している間、プレイヤーは行動・攻撃不可能になる </t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのキーを押している間、表示される画面を動かせる</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示される画面は既存の表示されている範囲を数えて2.5倍までしか動かせない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃準備</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃するまえにキーを押してオーラを発生する</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーラが発生している状態のみ攻撃ができる</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーラのキーを押すと、それぞれの色になる</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の情報</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃は真っ直ぐ飛び、一定距離で消滅する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提情報</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、敵は動かず、主人公と同じ攻撃を</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の種類</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相互</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公は敵と接触すると、点滅、無敵、ＫＢする。敵と重ならない。</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触ダメ</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公は3回接触すると、敗北する。</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵2</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の行動</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵は索敵を行い、主人公が範囲内にいると、近づき攻撃する。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクテキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の撃破</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の敵は点滅しおえた後、周囲に爆発を発生させる。</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の撃破</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＨＰ回復の生成</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＰ回復の生成</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の敵は点滅をおえた後、氷を生成する。重なる場合追い出す。</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の撃破</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の敵は点滅をおえた後、雷を発生させ、範囲内の敵は停止する。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーラには赤、青、黄が存在し、それぞれキーもある</t>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵にも赤、青、黄の色が存在する。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック・システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界を動かすことができ、1.5倍先まで見れる。</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公と敵の色が同じ場合、攻撃が当たると、敵は点滅し消滅する。</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1358,12 +3048,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,16 +3368,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B5:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1695,7 +3562,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -1711,8 +3578,8 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -1720,14 +3587,14 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
@@ -1736,25 +3603,25 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -1765,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
@@ -1776,7 +3643,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -1787,7 +3654,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
@@ -1798,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
@@ -1809,7 +3676,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
@@ -1817,10 +3684,10 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.15">
@@ -1828,10 +3695,10 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.15">
@@ -1839,223 +3706,494 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="E40" t="s">
-        <v>85</v>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>86</v>
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E80" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2068,27 +4206,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E5:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/エレメンタル_作業リスト_PG用.xlsx
+++ b/エレメンタル_作業リスト_PG用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="9870"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="簡易" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
   <si>
     <t>OG</t>
     <phoneticPr fontId="1"/>
@@ -215,28 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃2での攻撃は前方に向かって主人公が攻撃をする</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンポウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>属性の準備1</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
@@ -292,31 +270,6 @@
     <t>攻撃4</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃3での攻撃は一定距離まで達すると、攻撃は消滅をする</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,35 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤、青、黄</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤、青、黄のオーラが存在する</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下記の準備</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -714,22 +638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤、青、黄の敵</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遠距離を行う</t>
     <rPh sb="0" eb="3">
       <t>エンキョリ</t>
@@ -1111,16 +1019,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薄い足場</t>
-    <rPh sb="0" eb="1">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>アシバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>壊れない壁</t>
     <rPh sb="0" eb="1">
       <t>コワ</t>
@@ -1134,70 +1032,6 @@
     <t>壁</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壊れる壁</t>
-    <rPh sb="0" eb="1">
-      <t>コワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷の壁</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷の壁2</t>
-    <rPh sb="0" eb="1">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>溶ける</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギミックで溶ける</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の雷爆発によってスイッチ範囲にいると</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カミナリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バクハツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1270,26 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>炎のギミックによって破壊できないブロック。</t>
-    <rPh sb="0" eb="1">
-      <t>ホノオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>炎のギミックによって破壊できるブロック。</t>
-    <rPh sb="0" eb="1">
-      <t>ホノオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストの発生</t>
     <rPh sb="5" eb="7">
       <t>ハッセイ</t>
@@ -1659,46 +1473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目によって動かせる範囲は最初の範囲から数えて2.5個先まで（範囲は視界範囲を指す）。</t>
-    <rPh sb="0" eb="1">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カゾ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤の敵が【相互_敵の撃破3】のあと、爆発のモーションが発生する</t>
     <rPh sb="0" eb="1">
       <t>アカ</t>
@@ -2135,138 +1909,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄の撃破1</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄の撃破2</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【黄の撃破1】のモーションが発生と同時に4マス以内に敵が存在すると、その敵は行動･攻撃不可能になる。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲキハ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>フカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄の敵が【相互_敵の撃破3】の雷のモーションが発生し、数秒後に消える。</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カミナリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スウビョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄の撃破3</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【黄の撃破2】の敵はx秒行動･攻撃不可能になり、その間はスタンエフェクトが周りに纏う。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲキハ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>フカノウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【主人公_攻撃2】により攻撃が敵に当たると、敵は点滅する。</t>
     <rPh sb="1" eb="4">
       <t>シュジンコウ</t>
@@ -2942,25 +2584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>視界を動かすことができ、1.5倍先まで見れる。</t>
-    <rPh sb="0" eb="2">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主人公と敵の色が同じ場合、攻撃が当たると、敵は点滅し消滅する。</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
@@ -3001,6 +2624,1191 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公の自動操作</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動パターン</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃5</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃3】での攻撃は一定距離まで達すると、攻撃は消滅をする</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃2】での攻撃は前方に向かって主人公が攻撃をする</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【攻撃4】までにブロック（障害物）が存在し当たると、攻撃は消滅する</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に攻撃すると</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aキー推奨</t>
+    <rPh sb="3" eb="5">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aキーで視界を動かすことができ、1.5倍先まで見れる。</t>
+    <rPh sb="4" eb="6">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃は障害物に当たると、消滅する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを食らうと、HP（ハート）の色が暗くなるように描画する。</t>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃をすると、MP（ゲージ）が減るように描画する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵2_赤の撃破2】によって破壊できるブロック。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵2_青の撃破3】によって生成できるブロック。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破1</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄の敵が【相互_敵の撃破3】の風のモーションが発生し、数秒後に消える。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破2</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破1】のモーションが発生と同時に4マス以内に敵が存在すると、その敵を押し出す。</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破3</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破2】によって押し出された敵は4マス押し出す。途中壁に当たると止まる。</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破4</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破5</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破4】で動くブロックはそのギミック専用のブロックを用意する。他のブロックは動かない</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破1】のモーションが発生と同時に4マス以内にブッロクが存在すると、ブロックが動く（押し出す）</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破6</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破5】で動いたブロックは指定された位置に移動する。その先に障害物あった場合、動くブロックが置かれる。</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷のブロック2</t>
+    <rPh sb="0" eb="1">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【氷のブロック】は【敵2_青の撃破6】によって消滅する。</t>
+    <rPh sb="1" eb="2">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【敵2_緑の撃破】によって移動されるブロック。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に移る</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかなる方法を用いても破壊できないブロック。ブロックに重なることも、下から侵入するこもできない。</t>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シンニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵3</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生</t>
+    <rPh sb="0" eb="2">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定位置にプレイヤーが到着すると、自動でプレイヤーが動く。指定した動きが終えると、再度操作できるようになる。</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP回復アイテム（ソウル）を取ると、MPが回復し、最大MP以上は回復しない。</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復アイテム（肉）を取ると、HPが回復し、最大HP以上は回復しない。</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い足場1</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「↓キー」を入力すると下の段に移動できるブロック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い足場2</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのブロックの下で、「↑キー」を入力すると、乗ることができるブロック（ジャンプ力内に存在する場合）。</t>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動操作でのキーとは別のキーを用意する</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sキー推奨</t>
+    <rPh sb="3" eb="5">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのキーを押すと、画面に描画されている敵全部を行動･攻撃不可能になる</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤、青、緑のオーラが存在する</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤、青、緑</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤、青、緑の敵</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のキーを押すと、画面全域を暗くし、全ユニットの全行動を停止させる。再度押すと元に戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンイキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dキー推奨</t>
+    <rPh sb="3" eb="5">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リタイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リタイア2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのウィンドウ中は「Yキー」と「Ｎキー」しか操作できない。</t>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のキーを押すと、【ポーズ】になり画面中央にウィンドウが生成される。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リタイア4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リタイア3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Y」を押すと、ウィンドウが消え、【リタイヤ】になる状態前になる。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「N」を押すと、タイトルシーンに移行する。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rキー推奨</t>
+    <rPh sb="3" eb="5">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加操作</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スタン】によっておこるギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルシーン開始時のエフェクト</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルで特定のキーを押すと、ゲームが開始され、シーンが以降される。移行先は下の行である。</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ中</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがユニットを操作できるシーンで、クリア判定、オーバー判定が満たされるとシーンが以降する。</t>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア判定が満たされると移行するシーンで、その状態で特定のキーを押すと、タイトルに戻る。</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバー判定が満たされると移行するシーンで、その状態で特定のキーを押すと、タイトルに戻る。</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在作製中</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＵＩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定アニメ</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱に攻撃が当たると、宝箱が開き、秘宝が見える</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3048,12 +3856,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3368,10 +4182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F25"/>
+  <dimension ref="B5:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3388,150 +4202,155 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" t="s">
-        <v>183</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
         <v>184</v>
-      </c>
-      <c r="F13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" t="s">
-        <v>192</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3542,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G80"/>
+  <dimension ref="B2:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3562,7 +4381,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -3578,8 +4397,8 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -3587,14 +4406,14 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
@@ -3603,25 +4422,25 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -3632,568 +4451,770 @@
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>198</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
         <v>68</v>
       </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E43" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>93</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
         <v>134</v>
       </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E49" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E51" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" t="s">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E55" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
         <v>151</v>
       </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E58" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E59" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F64" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E81" t="s">
+        <v>247</v>
+      </c>
+      <c r="F81" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E82" t="s">
+        <v>248</v>
+      </c>
+      <c r="F82" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E84" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E98" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E70" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E72" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E80" t="s">
-        <v>197</v>
+      <c r="F100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>271</v>
+      </c>
+      <c r="E103" t="s">
+        <v>187</v>
+      </c>
+      <c r="F103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4208,10 +5229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:F10"/>
+  <dimension ref="D5:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4220,38 +5241,78 @@
     <col min="6" max="6" width="85.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>169</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/エレメンタル_作業リスト_PG用.xlsx
+++ b/エレメンタル_作業リスト_PG用.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="簡易" sheetId="2" r:id="rId1"/>
+    <sheet name="情報" sheetId="4" r:id="rId1"/>
     <sheet name="工程" sheetId="1" r:id="rId2"/>
     <sheet name="追加作業" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
   <si>
     <t>OG</t>
     <phoneticPr fontId="1"/>
@@ -968,49 +968,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃の種類</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本動作</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右に動く･ジャンプ･下に降りる・ダッシュ</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギミック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1456,16 +1413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の撃破</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目</t>
     <rPh sb="0" eb="1">
       <t>メ</t>
@@ -2160,279 +2107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃準備</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃するまえにキーを押してオーラを発生する</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーラが発生している状態のみ攻撃ができる</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーラのキーを押すと、それぞれの色になる</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃の情報</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃は真っ直ぐ飛び、一定距離で消滅する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前提情報</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在、敵は動かず、主人公と同じ攻撃を</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の種類</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相互</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主人公は敵と接触すると、点滅、無敵、ＫＢする。敵と重ならない。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接触ダメ</t>
-    <rPh sb="0" eb="2">
-      <t>セッショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敗北</t>
-    <rPh sb="0" eb="2">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主人公は3回接触すると、敗北する。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵2</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の行動</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵は索敵を行い、主人公が範囲内にいると、近づき攻撃する。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクテキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤の撃破</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤の敵は点滅しおえた後、周囲に爆発を発生させる。</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バクハツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青の撃破</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ＨＰ回復の生成</t>
     <rPh sb="2" eb="4">
       <t>カイフク</t>
@@ -2449,181 +2123,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青の敵は点滅をおえた後、氷を生成する。重なる場合追い出す。</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄の撃破</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲキハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄の敵は点滅をおえた後、雷を発生させ、範囲内の敵は停止する。</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カミナリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーラには赤、青、黄が存在し、それぞれキーもある</t>
-    <rPh sb="5" eb="6">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵にも赤、青、黄の色が存在する。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目</t>
-    <rPh sb="0" eb="1">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギミック・システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主人公と敵の色が同じ場合、攻撃が当たると、敵は点滅し消滅する。</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2782,41 +2281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Aキーで視界を動かすことができ、1.5倍先まで見れる。</t>
-    <rPh sb="4" eb="6">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃は障害物に当たると、消滅する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダメージを食らうと、HP（ハート）の色が暗くなるように描画する。</t>
     <rPh sb="5" eb="6">
       <t>ク</t>
@@ -2888,37 +2352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄の敵が【相互_敵の撃破3】の風のモーションが発生し、数秒後に消える。</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スウビョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>緑の撃破2</t>
     <rPh sb="0" eb="1">
       <t>ミドリ</t>
@@ -3809,6 +3242,159 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の敵が【相互_敵の撃破3】の風のモーションが発生し、数秒後に消える。</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破7</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の撃破8</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破1】で生成された風のモーションの範囲内にプレイヤーが存在、接触すると風のモーション中央下部に強制移動</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【緑の撃破7】で中央下部に移動したのち、上方向に8マス分のジャンプを強制的に行う。</t>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3856,7 +3442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3874,6 +3460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4182,175 +3771,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F26"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="6">
+        <v>42583</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
+      <c r="D3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4361,16 +3812,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G104"/>
+  <dimension ref="B2:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.625" customWidth="1"/>
     <col min="7" max="7" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4397,7 +3848,7 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4406,14 +3857,14 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
@@ -4422,7 +3873,7 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4430,7 +3881,7 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
@@ -4456,7 +3907,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -4487,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>37</v>
@@ -4498,7 +3949,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>38</v>
@@ -4506,13 +3957,13 @@
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.15">
@@ -4520,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.15">
@@ -4531,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>39</v>
@@ -4545,7 +3996,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.15">
@@ -4578,7 +4029,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>51</v>
@@ -4589,7 +4040,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>44</v>
@@ -4600,7 +4051,7 @@
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>48</v>
@@ -4611,7 +4062,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>49</v>
@@ -4622,10 +4073,10 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.15">
@@ -4636,7 +4087,7 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>52</v>
@@ -4647,7 +4098,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>53</v>
@@ -4658,7 +4109,7 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>55</v>
@@ -4690,7 +4141,7 @@
         <v>59</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.15">
@@ -4745,10 +4196,10 @@
         <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.15">
@@ -4756,10 +4207,10 @@
         <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.15">
@@ -4770,451 +4221,467 @@
         <v>75</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E59" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E60" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E62" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="F62" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D66" t="s">
-        <v>228</v>
-      </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" t="s">
-        <v>260</v>
-      </c>
-      <c r="E69" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E70" t="s">
-        <v>263</v>
-      </c>
-      <c r="F70" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" t="s">
+        <v>221</v>
+      </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F71" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E72" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E73" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" t="s">
-        <v>256</v>
-      </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F75" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="G76" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F77" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E78" t="s">
-        <v>231</v>
-      </c>
       <c r="F78" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E80" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
       <c r="F81" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E82" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E83" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>254</v>
+        <v>210</v>
+      </c>
+      <c r="G84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>270</v>
-      </c>
-      <c r="E88" t="s">
-        <v>189</v>
-      </c>
-      <c r="F88" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E89" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F92" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E93" t="s">
-        <v>220</v>
-      </c>
-      <c r="F93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E94" t="s">
-        <v>221</v>
-      </c>
-      <c r="F94" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E95" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E96" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E97" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E98" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E100" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E101" t="s">
-        <v>175</v>
-      </c>
-      <c r="F101" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>271</v>
-      </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="F103" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E104" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="F104" t="s">
-        <v>272</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+      <c r="F107" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5243,76 +4710,76 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
